--- a/data/trans_dic/P36$otros-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005649561486477747</v>
+        <v>0.006001890236238149</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002419472337917849</v>
+        <v>0.002695220123829099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04690500059419401</v>
+        <v>0.04769872877352133</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01528234631417874</v>
+        <v>0.01515342732977183</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004771568735713451</v>
+        <v>0.004363287069122815</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03679178257628066</v>
+        <v>0.03547200885746238</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0124995376150314</v>
+        <v>0.01278715787563757</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004897284181876606</v>
+        <v>0.004966939194673172</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04591180018582826</v>
+        <v>0.04604001062613564</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02214584621415135</v>
+        <v>0.02248776356027565</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01425372753155818</v>
+        <v>0.01492420203149928</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08670615392096856</v>
+        <v>0.08640058840674168</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03798501467512602</v>
+        <v>0.038602677756679</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02164882501885169</v>
+        <v>0.02136032605037349</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07126347878564306</v>
+        <v>0.07005161357554497</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02668492245605994</v>
+        <v>0.02789520528185153</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01564557142282764</v>
+        <v>0.01523844009075687</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07224520183401989</v>
+        <v>0.07286232904866677</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008244300466050427</v>
+        <v>0.008482108359034173</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002954419806643641</v>
+        <v>0.002929263741165436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02968234482732671</v>
+        <v>0.02869474044326766</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006973567284818126</v>
+        <v>0.007403309950123691</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00295298554597812</v>
+        <v>0.003089592940635194</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03336235743093027</v>
+        <v>0.03467312181532322</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.009393734854480697</v>
+        <v>0.009473777810892436</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00362878257205959</v>
+        <v>0.004016619614406965</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03399779588264448</v>
+        <v>0.03513675515844045</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0255031232481127</v>
+        <v>0.02496694980629781</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01489416550153742</v>
+        <v>0.01378025471858286</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05473978575830812</v>
+        <v>0.05444205817393084</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02226912443648975</v>
+        <v>0.02172772593395428</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01519974673706851</v>
+        <v>0.01413542478420356</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06138689433082702</v>
+        <v>0.06297651040778147</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02086857896436209</v>
+        <v>0.02035991823373879</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01111614649169883</v>
+        <v>0.01118582133582054</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05293337171075028</v>
+        <v>0.05373490348435483</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01617761217726187</v>
+        <v>0.01547257526435993</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003927020639249288</v>
+        <v>0.004165800243257473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01747395764479702</v>
+        <v>0.01653637570727706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01069655827569811</v>
+        <v>0.01148337406076227</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006977815307919143</v>
+        <v>0.007237730461023055</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01904508088849572</v>
+        <v>0.01882618822109953</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01592420290932748</v>
+        <v>0.0158330183318354</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007167117254946591</v>
+        <v>0.007286004885635666</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02140235363230904</v>
+        <v>0.02079065022202637</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03980507120953176</v>
+        <v>0.04055944268449924</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02700291608043285</v>
+        <v>0.02453906506216893</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04399633490383942</v>
+        <v>0.04280140263316634</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03208264692668739</v>
+        <v>0.0328303438151443</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02889878525715275</v>
+        <v>0.02899332106288945</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04488251129687744</v>
+        <v>0.04381958180665003</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03139748744443021</v>
+        <v>0.03138410045175272</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02148613771965298</v>
+        <v>0.02083447600204301</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03839598438798424</v>
+        <v>0.03936952133273341</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01158137058205484</v>
+        <v>0.01216045360776348</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009418266175504899</v>
+        <v>0.009844902102406556</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02272415485270745</v>
+        <v>0.02249169824889593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.006802258258482186</v>
+        <v>0.006168914950998421</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008312444513120363</v>
+        <v>0.007728862942924418</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02785371887567244</v>
+        <v>0.02774411564149171</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01063693327917208</v>
+        <v>0.01059812572689635</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01028324938529459</v>
+        <v>0.01031038044785477</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02848143561581786</v>
+        <v>0.02831315174321322</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03118796924082946</v>
+        <v>0.03298974510352403</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02796593229447131</v>
+        <v>0.02836989315725662</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04710982631923367</v>
+        <v>0.04693459426041695</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02109190412953423</v>
+        <v>0.02044262191048928</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02193768190203314</v>
+        <v>0.0215403805184203</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05359010355296899</v>
+        <v>0.05216302525364055</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02265883446950239</v>
+        <v>0.0227215073503015</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02192998559618966</v>
+        <v>0.02133401286097556</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04467993947426131</v>
+        <v>0.04498946973716464</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01429753941424679</v>
+        <v>0.01381634488042936</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007423382084851362</v>
+        <v>0.007002341931683787</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03402752290923115</v>
+        <v>0.03391116801670795</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01275566377236005</v>
+        <v>0.01261682350624962</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008419246789088832</v>
+        <v>0.008182719399912696</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03471822163333301</v>
+        <v>0.03497164490229357</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01401823320692411</v>
+        <v>0.01421893293507369</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008406677494961762</v>
+        <v>0.008531376208667712</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0358884110295991</v>
+        <v>0.03608834237308138</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02359012662425734</v>
+        <v>0.0236648487505724</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01486226919958985</v>
+        <v>0.0149959483126035</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04765723345227278</v>
+        <v>0.04782606360207798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02135878461099495</v>
+        <v>0.02151756395934763</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01559071244046518</v>
+        <v>0.01599089979352171</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04909261917952298</v>
+        <v>0.04889300326992383</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02065066394868495</v>
+        <v>0.02070663838609875</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01378658593534357</v>
+        <v>0.01394003067940766</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04566490188098222</v>
+        <v>0.0458993800567284</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3915</v>
+        <v>4159</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1697</v>
+        <v>1891</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31568</v>
+        <v>32102</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10520</v>
+        <v>10431</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3322</v>
+        <v>3037</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24711</v>
+        <v>23825</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17267</v>
+        <v>17664</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6844</v>
+        <v>6942</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>61736</v>
+        <v>61908</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15348</v>
+        <v>15585</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9999</v>
+        <v>10469</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>58355</v>
+        <v>58149</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26147</v>
+        <v>26572</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15070</v>
+        <v>14869</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>47864</v>
+        <v>47050</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>36862</v>
+        <v>38534</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21866</v>
+        <v>21297</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>97145</v>
+        <v>97975</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7905</v>
+        <v>8133</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3007</v>
+        <v>2982</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30315</v>
+        <v>29307</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6746</v>
+        <v>7162</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3042</v>
+        <v>3183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>34762</v>
+        <v>36128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>18095</v>
+        <v>18249</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7432</v>
+        <v>8226</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>70147</v>
+        <v>72497</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24454</v>
+        <v>23940</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15161</v>
+        <v>14028</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>55907</v>
+        <v>55603</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21543</v>
+        <v>21019</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15658</v>
+        <v>14561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>63963</v>
+        <v>65619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>40198</v>
+        <v>39218</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22767</v>
+        <v>22909</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>109217</v>
+        <v>110871</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10960</v>
+        <v>10482</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2967</v>
+        <v>3148</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13253</v>
+        <v>12542</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7315</v>
+        <v>7853</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5416</v>
+        <v>5618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14951</v>
+        <v>14779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21678</v>
+        <v>21554</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10978</v>
+        <v>11160</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>33034</v>
+        <v>32090</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26967</v>
+        <v>27478</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20403</v>
+        <v>18542</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33370</v>
+        <v>32464</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21939</v>
+        <v>22451</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22431</v>
+        <v>22504</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35233</v>
+        <v>34399</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>42742</v>
+        <v>42723</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>32912</v>
+        <v>31914</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>59263</v>
+        <v>60766</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10892</v>
+        <v>11436</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8908</v>
+        <v>9312</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21305</v>
+        <v>21087</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7044</v>
+        <v>6388</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8726</v>
+        <v>8114</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29042</v>
+        <v>28928</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>21019</v>
+        <v>20942</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20522</v>
+        <v>20576</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>56400</v>
+        <v>56067</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29331</v>
+        <v>31025</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26452</v>
+        <v>26834</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>44169</v>
+        <v>44004</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21843</v>
+        <v>21170</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>23030</v>
+        <v>22613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>55877</v>
+        <v>54389</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>44775</v>
+        <v>44899</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>43764</v>
+        <v>42575</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>88477</v>
+        <v>89090</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>46750</v>
+        <v>45177</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>25394</v>
+        <v>23954</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>115366</v>
+        <v>114972</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>43053</v>
+        <v>42584</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>29907</v>
+        <v>29067</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>122947</v>
+        <v>123845</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>93151</v>
+        <v>94485</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>58620</v>
+        <v>59490</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>248767</v>
+        <v>250152</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>77135</v>
+        <v>77380</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>50842</v>
+        <v>51299</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>161576</v>
+        <v>162149</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>72090</v>
+        <v>72626</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>55381</v>
+        <v>56803</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>173851</v>
+        <v>173144</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>137223</v>
+        <v>137595</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>96135</v>
+        <v>97205</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>316534</v>
+        <v>318159</v>
       </c>
     </row>
     <row r="24">
